--- a/new-invoice-frontend/main/src/assets/files/documenttypeimport.xlsx
+++ b/new-invoice-frontend/main/src/assets/files/documenttypeimport.xlsx
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -550,13 +550,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="b">
+      <c r="B2" s="3" t="b">
         <v>0</v>
       </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
@@ -566,10 +570,6 @@
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
